--- a/5-16-12/testing_data.xlsx
+++ b/5-16-12/testing_data.xlsx
@@ -4,14 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="600" windowWidth="25040" windowHeight="17820" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="20480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -22,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>2-pk2pk</t>
   </si>
@@ -51,7 +48,22 @@
     <t>Current going through the resistive load</t>
   </si>
   <si>
-    <t>11:52AM</t>
+    <t>12:07PM</t>
+  </si>
+  <si>
+    <t>12:28PM</t>
+  </si>
+  <si>
+    <t>12:56PM</t>
+  </si>
+  <si>
+    <t>1:16PM</t>
+  </si>
+  <si>
+    <t>3:23PM</t>
+  </si>
+  <si>
+    <t>1:42PM</t>
   </si>
 </sst>
 </file>
@@ -179,50 +191,47 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$5:$C$18</c:f>
+              <c:f>Sheet1!$C$5:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>450.0</c:v>
+                  <c:v>428.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>451.0</c:v>
+                  <c:v>429.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>452.0</c:v>
+                  <c:v>429.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>453.0</c:v>
+                  <c:v>429.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>454.0</c:v>
+                  <c:v>429.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>455.0</c:v>
+                  <c:v>429.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>456.0</c:v>
+                  <c:v>457.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>457.0</c:v>
+                  <c:v>458.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>458.0</c:v>
+                  <c:v>459.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>459.0</c:v>
+                  <c:v>460.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>460.0</c:v>
+                  <c:v>461.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>461.0</c:v>
+                  <c:v>462.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>462.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>463.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -238,50 +247,47 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$5:$D$18</c:f>
+              <c:f>Sheet1!$D$5:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>438.0</c:v>
+                  <c:v>417.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>439.0</c:v>
+                  <c:v>417.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>440.0</c:v>
+                  <c:v>417.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>441.0</c:v>
+                  <c:v>417.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>442.0</c:v>
+                  <c:v>417.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>443.0</c:v>
+                  <c:v>417.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>444.0</c:v>
+                  <c:v>445.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>445.0</c:v>
+                  <c:v>446.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>446.0</c:v>
+                  <c:v>447.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>447.0</c:v>
+                  <c:v>448.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>448.0</c:v>
+                  <c:v>449.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>449.0</c:v>
+                  <c:v>450.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>450.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>451.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -299,11 +305,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="552965848"/>
-        <c:axId val="552876808"/>
+        <c:axId val="494108904"/>
+        <c:axId val="4082552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="552965848"/>
+        <c:axId val="494108904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -331,7 +337,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="552876808"/>
+        <c:crossAx val="4082552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -339,7 +345,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="552876808"/>
+        <c:axId val="4082552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -373,7 +379,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="552965848"/>
+        <c:crossAx val="494108904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -452,50 +458,47 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$5:$E$18</c:f>
+              <c:f>Sheet1!$E$5:$E$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>5.09</c:v>
+                  <c:v>5.093</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.1</c:v>
+                  <c:v>5.093</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.11</c:v>
+                  <c:v>5.093</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.12</c:v>
+                  <c:v>5.093</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.13</c:v>
+                  <c:v>5.093</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.14</c:v>
+                  <c:v>5.092</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.15</c:v>
+                  <c:v>5.16</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.16</c:v>
+                  <c:v>5.17</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.17</c:v>
+                  <c:v>5.18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.18</c:v>
+                  <c:v>5.19</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.19</c:v>
+                  <c:v>5.2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.2</c:v>
+                  <c:v>5.21</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.21</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>5.22</c:v>
                 </c:pt>
               </c:numCache>
@@ -511,50 +514,47 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$5:$F$18</c:f>
+              <c:f>Sheet1!$F$5:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>5.08</c:v>
+                  <c:v>5.089</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.09</c:v>
+                  <c:v>5.089</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.1</c:v>
+                  <c:v>5.088</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.11</c:v>
+                  <c:v>5.0886</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.12</c:v>
+                  <c:v>5.0886</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.13</c:v>
+                  <c:v>5.0875</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.14</c:v>
+                  <c:v>5.15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.15</c:v>
+                  <c:v>5.16</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.16</c:v>
+                  <c:v>5.17</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.17</c:v>
+                  <c:v>5.18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.18</c:v>
+                  <c:v>5.19</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.19</c:v>
+                  <c:v>5.2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.2</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>5.21</c:v>
                 </c:pt>
               </c:numCache>
@@ -572,11 +572,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="563103992"/>
-        <c:axId val="563557096"/>
+        <c:axId val="494174152"/>
+        <c:axId val="494179864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="563103992"/>
+        <c:axId val="494174152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -609,7 +609,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="563557096"/>
+        <c:crossAx val="494179864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -617,7 +617,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="563557096"/>
+        <c:axId val="494179864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -647,7 +647,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="563103992"/>
+        <c:crossAx val="494174152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -716,50 +716,47 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$5:$G$18</c:f>
+              <c:f>Sheet1!$G$5:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>108.2978723404255</c:v>
+                  <c:v>108.3617021276596</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>108.5106382978723</c:v>
+                  <c:v>108.3617021276596</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>108.7234042553192</c:v>
+                  <c:v>108.3617021276596</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>108.936170212766</c:v>
+                  <c:v>108.3617021276596</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>109.1489361702128</c:v>
+                  <c:v>108.3617021276596</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>109.3617021276596</c:v>
+                  <c:v>108.3404255319149</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>109.5744680851064</c:v>
+                  <c:v>109.7872340425532</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>109.7872340425532</c:v>
+                  <c:v>110.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>110.0</c:v>
+                  <c:v>110.2127659574468</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>110.2127659574468</c:v>
+                  <c:v>110.4255319148936</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>110.4255319148936</c:v>
+                  <c:v>110.6382978723404</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>110.6382978723404</c:v>
+                  <c:v>110.8510638297872</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>110.8510638297872</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>111.063829787234</c:v>
                 </c:pt>
               </c:numCache>
@@ -775,50 +772,47 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$5:$H$18</c:f>
+              <c:f>Sheet1!$H$5:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>108.0851063829787</c:v>
+                  <c:v>108.2765957446809</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>108.2978723404255</c:v>
+                  <c:v>108.2765957446809</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>108.5106382978723</c:v>
+                  <c:v>108.2553191489362</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>108.7234042553192</c:v>
+                  <c:v>108.268085106383</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>108.936170212766</c:v>
+                  <c:v>108.268085106383</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>109.1489361702128</c:v>
+                  <c:v>108.2446808510638</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>109.3617021276596</c:v>
+                  <c:v>109.5744680851064</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>109.5744680851064</c:v>
+                  <c:v>109.7872340425532</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>109.7872340425532</c:v>
+                  <c:v>110.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>110.0</c:v>
+                  <c:v>110.2127659574468</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>110.2127659574468</c:v>
+                  <c:v>110.4255319148936</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>110.4255319148936</c:v>
+                  <c:v>110.6382978723404</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>110.6382978723404</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>110.8510638297872</c:v>
                 </c:pt>
               </c:numCache>
@@ -836,11 +830,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="551312424"/>
-        <c:axId val="551452104"/>
+        <c:axId val="480578616"/>
+        <c:axId val="480584104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="551312424"/>
+        <c:axId val="480578616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -868,7 +862,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="551452104"/>
+        <c:crossAx val="480584104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -876,7 +870,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="551452104"/>
+        <c:axId val="480584104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -906,7 +900,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="551312424"/>
+        <c:crossAx val="480578616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -940,7 +934,7 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -966,13 +960,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1004,7 +998,7 @@
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1027,240 +1021,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="9">
-          <cell r="C9">
-            <v>0.33700000000000002</v>
-          </cell>
-          <cell r="D9">
-            <v>0.48</v>
-          </cell>
-          <cell r="E9">
-            <v>5.069</v>
-          </cell>
-          <cell r="F9">
-            <v>5.0620000000000003</v>
-          </cell>
-          <cell r="G9">
-            <v>50.69</v>
-          </cell>
-          <cell r="H9">
-            <v>50.620000000000005</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10">
-            <v>0.33600000000000002</v>
-          </cell>
-          <cell r="D10">
-            <v>0.46500000000000002</v>
-          </cell>
-          <cell r="E10">
-            <v>5.0780000000000003</v>
-          </cell>
-          <cell r="F10">
-            <v>5.0720000000000001</v>
-          </cell>
-          <cell r="G10">
-            <v>50.780000000000008</v>
-          </cell>
-          <cell r="H10">
-            <v>50.72</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>0.33600000000000002</v>
-          </cell>
-          <cell r="D11">
-            <v>0.46500000000000002</v>
-          </cell>
-          <cell r="E11">
-            <v>5.0789999999999997</v>
-          </cell>
-          <cell r="F11">
-            <v>5.0720000000000001</v>
-          </cell>
-          <cell r="G11">
-            <v>50.789999999999992</v>
-          </cell>
-          <cell r="H11">
-            <v>50.72</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>0.33700000000000002</v>
-          </cell>
-          <cell r="D12">
-            <v>0.41099999999999998</v>
-          </cell>
-          <cell r="E12">
-            <v>5.0860000000000003</v>
-          </cell>
-          <cell r="F12">
-            <v>5.085</v>
-          </cell>
-          <cell r="G12">
-            <v>50.86</v>
-          </cell>
-          <cell r="H12">
-            <v>50.85</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13">
-            <v>0.33800000000000002</v>
-          </cell>
-          <cell r="D13">
-            <v>0.40899999999999997</v>
-          </cell>
-          <cell r="E13">
-            <v>5.0810000000000004</v>
-          </cell>
-          <cell r="F13">
-            <v>5.0830000000000002</v>
-          </cell>
-          <cell r="G13">
-            <v>50.81</v>
-          </cell>
-          <cell r="H13">
-            <v>50.83</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14">
-            <v>0.33800000000000002</v>
-          </cell>
-          <cell r="D14">
-            <v>0.41599999999999998</v>
-          </cell>
-          <cell r="E14">
-            <v>5.1040000000000001</v>
-          </cell>
-          <cell r="F14">
-            <v>5.1050000000000004</v>
-          </cell>
-          <cell r="G14">
-            <v>51.04</v>
-          </cell>
-          <cell r="H14">
-            <v>51.050000000000004</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15">
-            <v>0.33500000000000002</v>
-          </cell>
-          <cell r="D15">
-            <v>0.41099999999999998</v>
-          </cell>
-          <cell r="E15">
-            <v>5.101</v>
-          </cell>
-          <cell r="F15">
-            <v>5.101</v>
-          </cell>
-          <cell r="G15">
-            <v>51.01</v>
-          </cell>
-          <cell r="H15">
-            <v>51.01</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16">
-            <v>0.33700000000000002</v>
-          </cell>
-          <cell r="D16">
-            <v>0.41099999999999998</v>
-          </cell>
-          <cell r="E16">
-            <v>5.0910000000000002</v>
-          </cell>
-          <cell r="F16">
-            <v>5.0940000000000003</v>
-          </cell>
-          <cell r="G16">
-            <v>50.910000000000004</v>
-          </cell>
-          <cell r="H16">
-            <v>50.940000000000005</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17">
-            <v>0.33700000000000002</v>
-          </cell>
-          <cell r="D17">
-            <v>0.41099999999999998</v>
-          </cell>
-          <cell r="E17">
-            <v>5.0940000000000003</v>
-          </cell>
-          <cell r="F17">
-            <v>5.0960000000000001</v>
-          </cell>
-          <cell r="G17">
-            <v>50.940000000000005</v>
-          </cell>
-          <cell r="H17">
-            <v>50.96</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="C18">
-            <v>0.33800000000000002</v>
-          </cell>
-          <cell r="D18">
-            <v>0.41</v>
-          </cell>
-          <cell r="E18">
-            <v>5.093</v>
-          </cell>
-          <cell r="F18">
-            <v>5.0949999999999998</v>
-          </cell>
-          <cell r="G18">
-            <v>50.93</v>
-          </cell>
-          <cell r="H18">
-            <v>50.949999999999996</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19">
-            <v>0.33800000000000002</v>
-          </cell>
-          <cell r="D19">
-            <v>0.41</v>
-          </cell>
-          <cell r="E19">
-            <v>5.1020000000000003</v>
-          </cell>
-          <cell r="F19">
-            <v>5.1040000000000001</v>
-          </cell>
-          <cell r="G19">
-            <v>51.02</v>
-          </cell>
-          <cell r="H19">
-            <v>51.04</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1585,10 +1345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A18"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1635,333 +1395,321 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="C5">
-        <v>450</v>
+        <v>428</v>
       </c>
       <c r="D5">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="E5">
-        <v>5.09</v>
+        <v>5.093</v>
       </c>
       <c r="F5">
-        <v>5.08</v>
+        <v>5.0890000000000004</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:H15" si="0">E5/$I$2*1000</f>
-        <v>108.29787234042553</v>
+        <f t="shared" ref="G5:G17" si="0">E5/$I$2*1000</f>
+        <v>108.36170212765957</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
-        <v>108.08510638297872</v>
+        <f t="shared" ref="H5:H17" si="1">F5/$I$2*1000</f>
+        <v>108.27659574468086</v>
       </c>
     </row>
     <row r="6" spans="1:9">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="C6">
-        <v>451</v>
+        <v>429</v>
       </c>
       <c r="D6">
-        <v>439</v>
+        <v>417.6</v>
       </c>
       <c r="E6">
-        <v>5.0999999999999996</v>
+        <v>5.093</v>
       </c>
       <c r="F6">
-        <v>5.09</v>
+        <v>5.0890000000000004</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6:G18" si="1">E6/$I$2*1000</f>
-        <v>108.51063829787233</v>
+        <f t="shared" si="0"/>
+        <v>108.36170212765957</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="H6:H18" si="2">F6/$I$2*1000</f>
-        <v>108.29787234042553</v>
+        <f t="shared" si="1"/>
+        <v>108.27659574468086</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C7">
-        <v>452</v>
+        <v>429.5</v>
       </c>
       <c r="D7">
-        <v>440</v>
+        <v>417.8</v>
       </c>
       <c r="E7">
-        <v>5.1100000000000003</v>
+        <v>5.093</v>
       </c>
       <c r="F7">
-        <v>5.0999999999999996</v>
+        <v>5.0880000000000001</v>
       </c>
       <c r="G7">
+        <f t="shared" si="0"/>
+        <v>108.36170212765957</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="1"/>
-        <v>108.72340425531915</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="2"/>
-        <v>108.51063829787233</v>
+        <v>108.25531914893617</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="C8">
-        <v>453</v>
+        <v>429.7</v>
       </c>
       <c r="D8">
-        <v>441</v>
+        <v>417.7</v>
       </c>
       <c r="E8">
-        <v>5.12</v>
+        <v>5.093</v>
       </c>
       <c r="F8">
-        <v>5.1100000000000003</v>
+        <v>5.0885999999999996</v>
       </c>
       <c r="G8">
+        <f t="shared" si="0"/>
+        <v>108.36170212765957</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="1"/>
-        <v>108.93617021276596</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="2"/>
-        <v>108.72340425531915</v>
+        <v>108.26808510638297</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="C9">
-        <v>454</v>
+        <v>429.5</v>
       </c>
       <c r="D9">
-        <v>442</v>
+        <v>417.5</v>
       </c>
       <c r="E9">
-        <v>5.13</v>
+        <v>5.093</v>
       </c>
       <c r="F9">
-        <v>5.12</v>
+        <v>5.0885999999999996</v>
       </c>
       <c r="G9">
+        <f t="shared" si="0"/>
+        <v>108.36170212765957</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="1"/>
-        <v>109.14893617021276</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="2"/>
-        <v>108.93617021276596</v>
+        <v>108.26808510638297</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C10">
-        <v>455</v>
+        <v>429.4</v>
       </c>
       <c r="D10">
-        <v>443</v>
+        <v>417.5</v>
       </c>
       <c r="E10">
-        <v>5.14</v>
+        <v>5.0919999999999996</v>
       </c>
       <c r="F10">
-        <v>5.13</v>
+        <v>5.0875000000000004</v>
       </c>
       <c r="G10">
+        <f t="shared" si="0"/>
+        <v>108.34042553191489</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="1"/>
-        <v>109.36170212765957</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="2"/>
-        <v>109.14893617021276</v>
+        <v>108.24468085106383</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="2"/>
       <c r="C11">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D11">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E11">
+        <v>5.16</v>
+      </c>
+      <c r="F11">
         <v>5.15</v>
       </c>
-      <c r="F11">
-        <v>5.14</v>
-      </c>
       <c r="G11">
+        <f t="shared" si="0"/>
+        <v>109.78723404255319</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="1"/>
         <v>109.57446808510639</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="2"/>
-        <v>109.36170212765957</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="2"/>
       <c r="C12">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D12">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E12">
+        <v>5.17</v>
+      </c>
+      <c r="F12">
         <v>5.16</v>
       </c>
-      <c r="F12">
-        <v>5.15</v>
-      </c>
       <c r="G12">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="1"/>
         <v>109.78723404255319</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="2"/>
-        <v>109.57446808510639</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="2"/>
       <c r="C13">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D13">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E13">
+        <v>5.18</v>
+      </c>
+      <c r="F13">
         <v>5.17</v>
       </c>
-      <c r="F13">
-        <v>5.16</v>
-      </c>
       <c r="G13">
+        <f t="shared" si="0"/>
+        <v>110.21276595744681</v>
+      </c>
+      <c r="H13">
         <f t="shared" si="1"/>
         <v>110</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="2"/>
-        <v>109.78723404255319</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2"/>
       <c r="C14">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D14">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E14">
+        <v>5.19</v>
+      </c>
+      <c r="F14">
         <v>5.18</v>
       </c>
-      <c r="F14">
-        <v>5.17</v>
-      </c>
       <c r="G14">
+        <f t="shared" si="0"/>
+        <v>110.42553191489363</v>
+      </c>
+      <c r="H14">
         <f t="shared" si="1"/>
         <v>110.21276595744681</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="2"/>
-        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="2"/>
       <c r="C15">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D15">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E15">
+        <v>5.2</v>
+      </c>
+      <c r="F15">
         <v>5.19</v>
       </c>
-      <c r="F15">
-        <v>5.18</v>
-      </c>
       <c r="G15">
+        <f t="shared" si="0"/>
+        <v>110.63829787234043</v>
+      </c>
+      <c r="H15">
         <f t="shared" si="1"/>
         <v>110.42553191489363</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="2"/>
-        <v>110.21276595744681</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="2"/>
       <c r="C16">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D16">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E16">
+        <v>5.21</v>
+      </c>
+      <c r="F16">
         <v>5.2</v>
       </c>
-      <c r="F16">
-        <v>5.19</v>
-      </c>
       <c r="G16">
+        <f t="shared" si="0"/>
+        <v>110.85106382978724</v>
+      </c>
+      <c r="H16">
         <f t="shared" si="1"/>
         <v>110.63829787234043</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="2"/>
-        <v>110.42553191489363</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2"/>
       <c r="C17">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D17">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E17">
+        <v>5.22</v>
+      </c>
+      <c r="F17">
         <v>5.21</v>
       </c>
-      <c r="F17">
-        <v>5.2</v>
-      </c>
       <c r="G17">
+        <f t="shared" si="0"/>
+        <v>111.06382978723403</v>
+      </c>
+      <c r="H17">
         <f t="shared" si="1"/>
         <v>110.85106382978724</v>
       </c>
-      <c r="H17">
-        <f t="shared" si="2"/>
-        <v>110.63829787234043</v>
-      </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="2"/>
-      <c r="C18">
-        <v>463</v>
-      </c>
-      <c r="D18">
-        <v>451</v>
-      </c>
-      <c r="E18">
-        <v>5.22</v>
-      </c>
-      <c r="F18">
-        <v>5.21</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="1"/>
-        <v>111.06382978723403</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="2"/>
-        <v>110.85106382978724</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
+      <c r="A18" t="s">
         <v>7</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C18" t="s">
         <v>8</v>
       </c>
     </row>

--- a/5-16-12/testing_data.xlsx
+++ b/5-16-12/testing_data.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="20480" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Test 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Test 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>2-pk2pk</t>
   </si>
@@ -64,6 +65,30 @@
   </si>
   <si>
     <t>1:42PM</t>
+  </si>
+  <si>
+    <t>3:43PM</t>
+  </si>
+  <si>
+    <t>4:20PM</t>
+  </si>
+  <si>
+    <t>4:47PM</t>
+  </si>
+  <si>
+    <t>5:13PM</t>
+  </si>
+  <si>
+    <t>6:55PM</t>
+  </si>
+  <si>
+    <t>7:02PM</t>
+  </si>
+  <si>
+    <t>7:22PM</t>
+  </si>
+  <si>
+    <t>7:43PM</t>
   </si>
 </sst>
 </file>
@@ -120,8 +145,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -132,11 +165,19 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -191,48 +232,33 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$5:$C$17</c:f>
+              <c:f>'Test 1'!$C$5:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>428.0</c:v>
+                  <c:v>432.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>429.0</c:v>
+                  <c:v>433.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>429.5</c:v>
+                  <c:v>434.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>429.7</c:v>
+                  <c:v>434.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>429.5</c:v>
+                  <c:v>434.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>429.4</c:v>
+                  <c:v>434.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>457.0</c:v>
+                  <c:v>434.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>458.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>459.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>460.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>461.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>462.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>463.0</c:v>
+                  <c:v>434.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -247,48 +273,33 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$5:$D$17</c:f>
+              <c:f>'Test 1'!$D$5:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>417.0</c:v>
+                  <c:v>395.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>417.6</c:v>
+                  <c:v>395.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>417.8</c:v>
+                  <c:v>396.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>417.7</c:v>
+                  <c:v>396.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>417.5</c:v>
+                  <c:v>396.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>417.5</c:v>
+                  <c:v>396.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>445.0</c:v>
+                  <c:v>396.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>446.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>447.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>448.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>449.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>450.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>451.0</c:v>
+                  <c:v>396.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -305,11 +316,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="494108904"/>
-        <c:axId val="4082552"/>
+        <c:axId val="3910680"/>
+        <c:axId val="3923000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="494108904"/>
+        <c:axId val="3910680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -337,7 +348,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="4082552"/>
+        <c:crossAx val="3923000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -345,7 +356,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="4082552"/>
+        <c:axId val="3923000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -379,7 +390,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="494108904"/>
+        <c:crossAx val="3910680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -458,48 +469,33 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$5:$E$17</c:f>
+              <c:f>'Test 1'!$E$5:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.093</c:v>
+                  <c:v>4.9786</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.093</c:v>
+                  <c:v>4.9795</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.093</c:v>
+                  <c:v>4.9792</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.093</c:v>
+                  <c:v>4.9784</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.093</c:v>
+                  <c:v>4.9784</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.092</c:v>
+                  <c:v>4.9784</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.16</c:v>
+                  <c:v>4.9784</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.17</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.18</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.19</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.21</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.22</c:v>
+                  <c:v>4.9784</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -514,48 +510,33 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$5:$F$17</c:f>
+              <c:f>'Test 1'!$F$5:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.089</c:v>
+                  <c:v>4.9807</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.089</c:v>
+                  <c:v>4.9817</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.088</c:v>
+                  <c:v>4.9814</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0886</c:v>
+                  <c:v>4.9808</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0886</c:v>
+                  <c:v>4.9808</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0875</c:v>
+                  <c:v>4.9808</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.15</c:v>
+                  <c:v>4.9808</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.16</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.17</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.18</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.19</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.21</c:v>
+                  <c:v>4.9808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -572,11 +553,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="494174152"/>
-        <c:axId val="494179864"/>
+        <c:axId val="430542216"/>
+        <c:axId val="414924904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="494174152"/>
+        <c:axId val="430542216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -609,7 +590,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="494179864"/>
+        <c:crossAx val="414924904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -617,7 +598,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="494179864"/>
+        <c:axId val="414924904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -647,7 +628,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="494174152"/>
+        <c:crossAx val="430542216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -716,48 +697,33 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$5:$G$17</c:f>
+              <c:f>'Test 1'!$G$5:$G$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>108.3617021276596</c:v>
+                  <c:v>105.9276595744681</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>108.3617021276596</c:v>
+                  <c:v>105.9468085106383</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>108.3617021276596</c:v>
+                  <c:v>105.9404255319149</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>108.3617021276596</c:v>
+                  <c:v>105.9234042553191</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>108.3617021276596</c:v>
+                  <c:v>105.9234042553191</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>108.3404255319149</c:v>
+                  <c:v>105.9234042553191</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>109.7872340425532</c:v>
+                  <c:v>105.9234042553191</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>110.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>110.2127659574468</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>110.4255319148936</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>110.6382978723404</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>110.8510638297872</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>111.063829787234</c:v>
+                  <c:v>105.9234042553191</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -772,48 +738,33 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$5:$H$17</c:f>
+              <c:f>'Test 1'!$H$5:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>108.2765957446809</c:v>
+                  <c:v>105.9723404255319</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>108.2765957446809</c:v>
+                  <c:v>105.9936170212766</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>108.2553191489362</c:v>
+                  <c:v>105.9872340425532</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>108.268085106383</c:v>
+                  <c:v>105.9744680851064</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>108.268085106383</c:v>
+                  <c:v>105.9744680851064</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>108.2446808510638</c:v>
+                  <c:v>105.9744680851064</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>109.5744680851064</c:v>
+                  <c:v>105.9744680851064</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>109.7872340425532</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>110.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>110.2127659574468</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>110.4255319148936</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>110.6382978723404</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>110.8510638297872</c:v>
+                  <c:v>105.9744680851064</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -830,11 +781,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="480578616"/>
-        <c:axId val="480584104"/>
+        <c:axId val="430596568"/>
+        <c:axId val="414952120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="480578616"/>
+        <c:axId val="430596568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -862,7 +813,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="480584104"/>
+        <c:crossAx val="414952120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -870,7 +821,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="480584104"/>
+        <c:axId val="414952120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -900,7 +851,695 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="480578616"/>
+        <c:crossAx val="430596568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Pk2pk</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>2</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'Test 1'!$C$5:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>432.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>433.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>434.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>434.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>434.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>434.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>434.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>434.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>3</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'Test 1'!$D$5:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>395.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>395.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>396.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>396.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>396.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>396.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>396.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>396.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="445328392"/>
+        <c:axId val="445333864"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="445328392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Data Points</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="445333864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="445333864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Vpk2pk</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (V)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="445328392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Vavg</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0730898564150069"/>
+          <c:y val="0.127148703956344"/>
+          <c:w val="0.771406978539447"/>
+          <c:h val="0.806421243729254"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>2</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'Test 1'!$E$5:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.9786</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9795</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9792</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9784</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9784</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9784</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.9784</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.9784</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>3</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'Test 1'!$F$5:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.9807</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9817</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9814</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9808</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9808</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9808</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.9808</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.9808</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="445369496"/>
+        <c:axId val="445375208"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="445369496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Data</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Points</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="445375208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="445375208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Vage (V)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="445369496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Load Current</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>2</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'Test 1'!$G$5:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>105.9276595744681</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>105.9468085106383</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>105.9404255319149</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105.9234042553191</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>105.9234042553191</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>105.9234042553191</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>105.9234042553191</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>105.9234042553191</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>3</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'Test 1'!$H$5:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>105.9723404255319</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>105.9936170212766</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>105.9872340425532</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105.9744680851064</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>105.9744680851064</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>105.9744680851064</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>105.9744680851064</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>105.9744680851064</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="415136440"/>
+        <c:axId val="419981688"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="415136440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Data Points</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="419981688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="419981688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Load Current (mA)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="415136440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -923,6 +1562,107 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1345,10 +2085,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C8" sqref="C8:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1395,321 +2135,294 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>9</v>
+      <c r="A5" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C5">
-        <v>428</v>
+        <v>432.6</v>
       </c>
       <c r="D5">
-        <v>417</v>
+        <v>395.1</v>
       </c>
       <c r="E5">
-        <v>5.093</v>
+        <v>4.9786000000000001</v>
       </c>
       <c r="F5">
-        <v>5.0890000000000004</v>
+        <v>4.9806999999999997</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G17" si="0">E5/$I$2*1000</f>
-        <v>108.36170212765957</v>
+        <f t="shared" ref="G5:G13" si="0">E5/$I$2*1000</f>
+        <v>105.92765957446809</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H17" si="1">F5/$I$2*1000</f>
-        <v>108.27659574468086</v>
+        <f t="shared" ref="H5:H13" si="1">F5/$I$2*1000</f>
+        <v>105.97234042553191</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C6">
-        <v>429</v>
+        <v>433.4</v>
       </c>
       <c r="D6">
-        <v>417.6</v>
+        <v>395.8</v>
       </c>
       <c r="E6">
-        <v>5.093</v>
+        <v>4.9794999999999998</v>
       </c>
       <c r="F6">
-        <v>5.0890000000000004</v>
+        <v>4.9817</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>108.36170212765957</v>
+        <v>105.94680851063831</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>108.27659574468086</v>
+        <v>105.99361702127659</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C7">
-        <v>429.5</v>
+        <v>434.3</v>
       </c>
       <c r="D7">
-        <v>417.8</v>
+        <v>396.1</v>
       </c>
       <c r="E7">
-        <v>5.093</v>
+        <v>4.9791999999999996</v>
       </c>
       <c r="F7">
-        <v>5.0880000000000001</v>
+        <v>4.9813999999999998</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>108.36170212765957</v>
+        <v>105.9404255319149</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>108.25531914893617</v>
+        <v>105.98723404255318</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C8">
-        <v>429.7</v>
+        <v>434.6</v>
       </c>
       <c r="D8">
-        <v>417.7</v>
+        <v>396.3</v>
       </c>
       <c r="E8">
-        <v>5.093</v>
+        <v>4.9783999999999997</v>
       </c>
       <c r="F8">
-        <v>5.0885999999999996</v>
+        <v>4.9808000000000003</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>108.36170212765957</v>
+        <v>105.92340425531914</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>108.26808510638297</v>
+        <v>105.97446808510639</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="A9" s="2"/>
       <c r="C9">
-        <v>429.5</v>
+        <v>434.6</v>
       </c>
       <c r="D9">
-        <v>417.5</v>
+        <v>396.3</v>
       </c>
       <c r="E9">
-        <v>5.093</v>
+        <v>4.9783999999999997</v>
       </c>
       <c r="F9">
-        <v>5.0885999999999996</v>
+        <v>4.9808000000000003</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>108.36170212765957</v>
+        <v>105.92340425531914</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>108.26808510638297</v>
+        <v>105.97446808510639</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A10" s="2"/>
       <c r="C10">
-        <v>429.4</v>
+        <v>434.6</v>
       </c>
       <c r="D10">
-        <v>417.5</v>
+        <v>396.3</v>
       </c>
       <c r="E10">
-        <v>5.0919999999999996</v>
+        <v>4.9783999999999997</v>
       </c>
       <c r="F10">
-        <v>5.0875000000000004</v>
+        <v>4.9808000000000003</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>108.34042553191489</v>
+        <v>105.92340425531914</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>108.24468085106383</v>
+        <v>105.97446808510639</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="2"/>
       <c r="C11">
-        <v>457</v>
+        <v>434.6</v>
       </c>
       <c r="D11">
-        <v>445</v>
+        <v>396.3</v>
       </c>
       <c r="E11">
-        <v>5.16</v>
+        <v>4.9783999999999997</v>
       </c>
       <c r="F11">
-        <v>5.15</v>
+        <v>4.9808000000000003</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>109.78723404255319</v>
+        <v>105.92340425531914</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>109.57446808510639</v>
+        <v>105.97446808510639</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="2"/>
       <c r="C12">
-        <v>458</v>
+        <v>434.6</v>
       </c>
       <c r="D12">
-        <v>446</v>
+        <v>396.3</v>
       </c>
       <c r="E12">
-        <v>5.17</v>
+        <v>4.9783999999999997</v>
       </c>
       <c r="F12">
-        <v>5.16</v>
+        <v>4.9808000000000003</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>105.92340425531914</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>109.78723404255319</v>
+        <v>105.97446808510639</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="2"/>
       <c r="C13">
-        <v>459</v>
+        <v>434.6</v>
       </c>
       <c r="D13">
-        <v>447</v>
+        <v>396.3</v>
       </c>
       <c r="E13">
-        <v>5.18</v>
+        <v>4.9783999999999997</v>
       </c>
       <c r="F13">
-        <v>5.17</v>
+        <v>4.9808000000000003</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>110.21276595744681</v>
+        <v>105.92340425531914</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>105.97446808510639</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2"/>
       <c r="C14">
-        <v>460</v>
+        <v>434.6</v>
       </c>
       <c r="D14">
-        <v>448</v>
+        <v>396.3</v>
       </c>
       <c r="E14">
-        <v>5.19</v>
+        <v>4.9783999999999997</v>
       </c>
       <c r="F14">
-        <v>5.18</v>
+        <v>4.9808000000000003</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
-        <v>110.42553191489363</v>
+        <f t="shared" ref="G14:G16" si="2">E14/$I$2*1000</f>
+        <v>105.92340425531914</v>
       </c>
       <c r="H14">
-        <f t="shared" si="1"/>
-        <v>110.21276595744681</v>
+        <f t="shared" ref="H14:H16" si="3">F14/$I$2*1000</f>
+        <v>105.97446808510639</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="2"/>
       <c r="C15">
-        <v>461</v>
+        <v>434.6</v>
       </c>
       <c r="D15">
-        <v>449</v>
+        <v>396.3</v>
       </c>
       <c r="E15">
-        <v>5.2</v>
+        <v>4.9783999999999997</v>
       </c>
       <c r="F15">
-        <v>5.19</v>
+        <v>4.9808000000000003</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
-        <v>110.63829787234043</v>
+        <f t="shared" si="2"/>
+        <v>105.92340425531914</v>
       </c>
       <c r="H15">
-        <f t="shared" si="1"/>
-        <v>110.42553191489363</v>
+        <f t="shared" si="3"/>
+        <v>105.97446808510639</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="2"/>
       <c r="C16">
-        <v>462</v>
+        <v>434.6</v>
       </c>
       <c r="D16">
-        <v>450</v>
+        <v>396.3</v>
       </c>
       <c r="E16">
-        <v>5.21</v>
+        <v>4.9783999999999997</v>
       </c>
       <c r="F16">
-        <v>5.2</v>
+        <v>4.9808000000000003</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
-        <v>110.85106382978724</v>
+        <f t="shared" si="2"/>
+        <v>105.92340425531914</v>
       </c>
       <c r="H16">
-        <f t="shared" si="1"/>
-        <v>110.63829787234043</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="2"/>
-      <c r="C17">
-        <v>463</v>
-      </c>
-      <c r="D17">
-        <v>451</v>
-      </c>
-      <c r="E17">
-        <v>5.22</v>
-      </c>
-      <c r="F17">
-        <v>5.21</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
-        <v>111.06382978723403</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="1"/>
-        <v>110.85106382978724</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
+        <f t="shared" si="3"/>
+        <v>105.97446808510639</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>7</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C17" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1723,4 +2436,333 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1">
+        <v>41012</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>428</v>
+      </c>
+      <c r="D5">
+        <v>417</v>
+      </c>
+      <c r="E5">
+        <v>5.093</v>
+      </c>
+      <c r="F5">
+        <v>5.0890000000000004</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:H14" si="0">E5/$I$2*1000</f>
+        <v>231.5</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>231.31818181818184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>429</v>
+      </c>
+      <c r="D6">
+        <v>417.6</v>
+      </c>
+      <c r="E6">
+        <v>5.093</v>
+      </c>
+      <c r="F6">
+        <v>5.0890000000000004</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>231.5</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>231.31818181818184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>429.5</v>
+      </c>
+      <c r="D7">
+        <v>417.8</v>
+      </c>
+      <c r="E7">
+        <v>5.093</v>
+      </c>
+      <c r="F7">
+        <v>5.0880000000000001</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>231.5</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>231.27272727272728</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>429.7</v>
+      </c>
+      <c r="D8">
+        <v>417.7</v>
+      </c>
+      <c r="E8">
+        <v>5.093</v>
+      </c>
+      <c r="F8">
+        <v>5.0885999999999996</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>231.5</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>231.29999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>429.5</v>
+      </c>
+      <c r="D9">
+        <v>417.5</v>
+      </c>
+      <c r="E9">
+        <v>5.093</v>
+      </c>
+      <c r="F9">
+        <v>5.0885999999999996</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>231.5</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>231.29999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>429.4</v>
+      </c>
+      <c r="D10">
+        <v>417.5</v>
+      </c>
+      <c r="E10">
+        <v>5.0919999999999996</v>
+      </c>
+      <c r="F10">
+        <v>5.0875000000000004</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>231.45454545454544</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>231.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>428.7</v>
+      </c>
+      <c r="D11">
+        <v>417.2</v>
+      </c>
+      <c r="E11">
+        <v>5.0923999999999996</v>
+      </c>
+      <c r="F11">
+        <v>5.0877999999999997</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>231.47272727272724</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>231.26363636363635</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>428.7</v>
+      </c>
+      <c r="D12">
+        <v>418.3</v>
+      </c>
+      <c r="E12">
+        <v>5.0922999999999998</v>
+      </c>
+      <c r="F12">
+        <v>5.0879000000000003</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>231.46818181818182</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>231.26818181818186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>428.6</v>
+      </c>
+      <c r="D13">
+        <v>417</v>
+      </c>
+      <c r="E13">
+        <v>5.0929000000000002</v>
+      </c>
+      <c r="F13">
+        <v>5.0880999999999998</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>231.49545454545455</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>231.27727272727273</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>428.3</v>
+      </c>
+      <c r="D14">
+        <v>417</v>
+      </c>
+      <c r="E14">
+        <v>5.0297999999999998</v>
+      </c>
+      <c r="F14">
+        <v>5.0880000000000001</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>228.6272727272727</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>231.27272727272728</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/5-16-12/testing_data.xlsx
+++ b/5-16-12/testing_data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>2-pk2pk</t>
   </si>
@@ -89,6 +89,18 @@
   </si>
   <si>
     <t>7:43PM</t>
+  </si>
+  <si>
+    <t>8:29PM</t>
+  </si>
+  <si>
+    <t>9:11PM</t>
+  </si>
+  <si>
+    <t>9:38PM</t>
+  </si>
+  <si>
+    <t>9:54PM</t>
   </si>
 </sst>
 </file>
@@ -252,13 +264,13 @@
                   <c:v>434.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>434.6</c:v>
+                  <c:v>434.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>434.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>434.6</c:v>
+                  <c:v>435.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -299,7 +311,7 @@
                   <c:v>396.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>396.3</c:v>
+                  <c:v>396.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -486,16 +498,16 @@
                   <c:v>4.9784</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.9784</c:v>
+                  <c:v>4.9783</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.9784</c:v>
+                  <c:v>4.9785</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.9784</c:v>
+                  <c:v>4.9789</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.9784</c:v>
+                  <c:v>4.9786</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -527,16 +539,16 @@
                   <c:v>4.9808</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.9808</c:v>
+                  <c:v>4.981</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.9808</c:v>
+                  <c:v>4.981</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.9808</c:v>
+                  <c:v>4.9812</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.9808</c:v>
+                  <c:v>4.9809</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -714,16 +726,16 @@
                   <c:v>105.9234042553191</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>105.9234042553191</c:v>
+                  <c:v>105.9212765957447</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>105.9234042553191</c:v>
+                  <c:v>105.9255319148936</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>105.9234042553191</c:v>
+                  <c:v>105.9340425531915</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>105.9234042553191</c:v>
+                  <c:v>105.9276595744681</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -755,16 +767,16 @@
                   <c:v>105.9744680851064</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>105.9744680851064</c:v>
+                  <c:v>105.9787234042553</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>105.9744680851064</c:v>
+                  <c:v>105.9787234042553</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>105.9744680851064</c:v>
+                  <c:v>105.9829787234043</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>105.9744680851064</c:v>
+                  <c:v>105.9765957446808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -940,13 +952,13 @@
                   <c:v>434.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>434.6</c:v>
+                  <c:v>434.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>434.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>434.6</c:v>
+                  <c:v>435.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -987,7 +999,7 @@
                   <c:v>396.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>396.3</c:v>
+                  <c:v>396.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1174,16 +1186,16 @@
                   <c:v>4.9784</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.9784</c:v>
+                  <c:v>4.9783</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.9784</c:v>
+                  <c:v>4.9785</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.9784</c:v>
+                  <c:v>4.9789</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.9784</c:v>
+                  <c:v>4.9786</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1215,16 +1227,16 @@
                   <c:v>4.9808</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.9808</c:v>
+                  <c:v>4.981</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.9808</c:v>
+                  <c:v>4.981</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.9808</c:v>
+                  <c:v>4.9812</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.9808</c:v>
+                  <c:v>4.9809</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1402,16 +1414,16 @@
                   <c:v>105.9234042553191</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>105.9234042553191</c:v>
+                  <c:v>105.9212765957447</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>105.9234042553191</c:v>
+                  <c:v>105.9255319148936</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>105.9234042553191</c:v>
+                  <c:v>105.9340425531915</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>105.9234042553191</c:v>
+                  <c:v>105.9276595744681</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1443,16 +1455,16 @@
                   <c:v>105.9744680851064</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>105.9744680851064</c:v>
+                  <c:v>105.9787234042553</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>105.9744680851064</c:v>
+                  <c:v>105.9787234042553</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>105.9744680851064</c:v>
+                  <c:v>105.9829787234043</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>105.9744680851064</c:v>
+                  <c:v>105.9765957446808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2088,7 +2100,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:F16"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2235,7 +2247,9 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="C9">
         <v>434.6</v>
       </c>
@@ -2243,45 +2257,49 @@
         <v>396.3</v>
       </c>
       <c r="E9">
-        <v>4.9783999999999997</v>
+        <v>4.9782999999999999</v>
       </c>
       <c r="F9">
-        <v>4.9808000000000003</v>
+        <v>4.9809999999999999</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>105.92340425531914</v>
+        <v>105.92127659574469</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>105.97446808510639</v>
+        <v>105.97872340425532</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="C10">
-        <v>434.6</v>
+        <v>434.8</v>
       </c>
       <c r="D10">
         <v>396.3</v>
       </c>
       <c r="E10">
-        <v>4.9783999999999997</v>
+        <v>4.9785000000000004</v>
       </c>
       <c r="F10">
-        <v>4.9808000000000003</v>
+        <v>4.9809999999999999</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>105.92340425531914</v>
+        <v>105.92553191489363</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>105.97446808510639</v>
+        <v>105.97872340425532</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="C11">
         <v>434.6</v>
       </c>
@@ -2289,133 +2307,87 @@
         <v>396.3</v>
       </c>
       <c r="E11">
-        <v>4.9783999999999997</v>
+        <v>4.9789000000000003</v>
       </c>
       <c r="F11">
-        <v>4.9808000000000003</v>
+        <v>4.9812000000000003</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>105.92340425531914</v>
+        <v>105.9340425531915</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>105.97446808510639</v>
+        <v>105.98297872340426</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="C12">
-        <v>434.6</v>
+        <v>435</v>
       </c>
       <c r="D12">
-        <v>396.3</v>
+        <v>396.7</v>
       </c>
       <c r="E12">
-        <v>4.9783999999999997</v>
+        <v>4.9786000000000001</v>
       </c>
       <c r="F12">
-        <v>4.9808000000000003</v>
+        <v>4.9809000000000001</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>105.92340425531914</v>
+        <v>105.92765957446809</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>105.97446808510639</v>
+        <v>105.97659574468085</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="2"/>
-      <c r="C13">
-        <v>434.6</v>
-      </c>
-      <c r="D13">
-        <v>396.3</v>
-      </c>
-      <c r="E13">
-        <v>4.9783999999999997</v>
-      </c>
-      <c r="F13">
-        <v>4.9808000000000003</v>
-      </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>105.92340425531914</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>105.97446808510639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2"/>
-      <c r="C14">
-        <v>434.6</v>
-      </c>
-      <c r="D14">
-        <v>396.3</v>
-      </c>
-      <c r="E14">
-        <v>4.9783999999999997</v>
-      </c>
-      <c r="F14">
-        <v>4.9808000000000003</v>
-      </c>
       <c r="G14">
         <f t="shared" ref="G14:G16" si="2">E14/$I$2*1000</f>
-        <v>105.92340425531914</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <f t="shared" ref="H14:H16" si="3">F14/$I$2*1000</f>
-        <v>105.97446808510639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="2"/>
-      <c r="C15">
-        <v>434.6</v>
-      </c>
-      <c r="D15">
-        <v>396.3</v>
-      </c>
-      <c r="E15">
-        <v>4.9783999999999997</v>
-      </c>
-      <c r="F15">
-        <v>4.9808000000000003</v>
-      </c>
       <c r="G15">
         <f t="shared" si="2"/>
-        <v>105.92340425531914</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <f t="shared" si="3"/>
-        <v>105.97446808510639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="2"/>
-      <c r="C16">
-        <v>434.6</v>
-      </c>
-      <c r="D16">
-        <v>396.3</v>
-      </c>
-      <c r="E16">
-        <v>4.9783999999999997</v>
-      </c>
-      <c r="F16">
-        <v>4.9808000000000003</v>
-      </c>
       <c r="G16">
         <f t="shared" si="2"/>
-        <v>105.92340425531914</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <f t="shared" si="3"/>
-        <v>105.97446808510639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3">
